--- a/biology/Zoologie/Bulbul_à_joues_blanches/Bulbul_à_joues_blanches.xlsx
+++ b/biology/Zoologie/Bulbul_à_joues_blanches/Bulbul_à_joues_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_joues_blanches</t>
+          <t>Bulbul_à_joues_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus leucogenys
 Le Bulbul à joues blanches (Pycnonotus leucogenys) est une espèce de passereaux de la famille des Pycnonotidae. Elle fut tout d'abord nommée Brachypus leucogenys, en 1835, par le zoologiste britannique John Edward Gray (1800-1875).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_%C3%A0_joues_blanches</t>
+          <t>Bulbul_à_joues_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans l'Himalaya.
 </t>
